--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -11,45 +11,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>https://me24.meest-group.com/</t>
-  </si>
-  <si>
-    <t>Давиденко О.К.</t>
-  </si>
-  <si>
-    <t>Реєстрація</t>
-  </si>
-  <si>
-    <t>Валідація полів</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Зміна мови сайту</t>
-  </si>
-  <si>
-    <t>Авторизація</t>
-  </si>
-  <si>
-    <t>Відновлення паролю</t>
-  </si>
-  <si>
-    <t>Профіль</t>
-  </si>
-  <si>
-    <t>Зміна імені</t>
-  </si>
-  <si>
-    <t>Зміна email</t>
-  </si>
-  <si>
-    <t>Зміна паролю</t>
-  </si>
-  <si>
-    <t>Failed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>Checklist for checking the login/registration form on the website https://gradinamax.com.ua/</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description of the check</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Checking for a login field (email)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Checking for a password field</t>
+  </si>
+  <si>
+    <t>Checking the presence of the “Login” button</t>
+  </si>
+  <si>
+    <t>Check for the presence of the “Recall password” link</t>
+  </si>
+  <si>
+    <t>Check for a link to register a new user</t>
+  </si>
+  <si>
+    <t>Checking the form response to an incorrect login</t>
+  </si>
+  <si>
+    <t>Checking the form response to an empty login field</t>
+  </si>
+  <si>
+    <t>Checking the form response to an empty password field</t>
+  </si>
+  <si>
+    <t>Checking the form response for the correct login and password</t>
+  </si>
+  <si>
+    <t>Checking for the presence of the “memorized in the system” function</t>
+  </si>
+  <si>
+    <t>Checking the availability of the “password display” function</t>
+  </si>
+  <si>
+    <t>Checking the possibility of logging in using Facebook and Google</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -64,16 +79,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -99,8 +111,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -126,17 +168,15 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -355,103 +395,175 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.63"/>
+    <col customWidth="1" min="1" max="1" width="6.0"/>
+    <col customWidth="1" min="2" max="2" width="57.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
+      <c r="A4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
+      <c r="A6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
+      <c r="A7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
+      <c r="A9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
+      <c r="A10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
+      <c r="A12" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>